--- a/tcc_documento/output_tabela.xlsx
+++ b/tcc_documento/output_tabela.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelipeEstradaNunesda\workspace\python\proj_classif_dl\tcc_documento\novo doc________________________________________\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelipeEstradaNunesda\workspace\python\FundusDetectionTCC\tcc_documento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E20FE73-DBB4-4C15-B266-CDFEAEF7B760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560D2741-72BA-4B3A-A370-9E365AF2BD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6C7B2F82-E1B7-4606-8CB5-360346D3577D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6C7B2F82-E1B7-4606-8CB5-360346D3577D}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>EfficientNet-B0</t>
   </si>
@@ -128,58 +128,10 @@
     <t>4,734 M</t>
   </si>
   <si>
-    <t>4 Classes Nova</t>
-  </si>
-  <si>
-    <t>--- Treinamento efficientnet ---</t>
-  </si>
-  <si>
-    <t>📊 Teste - Perda</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precisão</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sensibilidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Especificidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tempo Medio Inferencia (s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0,347990s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0,341096s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0,406335s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0,412937s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0,179487s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2,047364s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2,053903s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0,384676s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0,221327s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0,102381s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0,063442s</t>
+    <t>Precisão</t>
+  </si>
+  <si>
+    <t>Modelo</t>
   </si>
 </sst>
 </file>
@@ -231,7 +183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -266,26 +218,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color indexed="64"/>
       </left>
@@ -413,91 +345,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -833,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5C5D48-0E2F-49D7-9719-DBCCA1ACCB0C}">
-  <dimension ref="A2:O31"/>
+  <dimension ref="A2:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K14"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -848,853 +787,715 @@
     <col min="5" max="9" width="7.6640625" customWidth="1"/>
     <col min="10" max="11" width="11" customWidth="1"/>
     <col min="12" max="12" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="41.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30" t="s">
+      <c r="G2" s="28"/>
+      <c r="H2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30" t="s">
+      <c r="I2" s="28"/>
+      <c r="J2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="31"/>
+      <c r="K2" s="29"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="8" t="s">
+      <c r="M2" s="30"/>
+      <c r="N2" s="22"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="5" t="s">
         <v>25</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="M3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="7">
         <v>47.49</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="7">
         <v>95.31</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="7">
         <v>59.38</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="8">
         <v>0.2641</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="8">
         <v>0.98880000000000001</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="9">
         <v>0.95450000000000002</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="9">
         <v>0.86270000000000002</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="10">
         <v>610.78300000000002</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="10">
         <v>347.99</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="L4" s="2"/>
+      <c r="M4" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>59.38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="7">
         <v>54.28</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="11">
         <v>100</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="11">
         <v>97.66</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="8">
         <v>3.0800000000000001E-2</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="8">
         <v>0.14080000000000001</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="9">
         <v>1</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="9">
         <v>0.98280000000000001</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="10">
         <v>226.64</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="10">
         <v>341.096</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="L5" s="2"/>
+      <c r="M5" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="11">
+        <v>97.66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="7">
         <v>27.77</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="11">
         <v>100</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="7">
         <v>93.75</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="8">
         <v>3.0800000000000001E-2</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="8">
         <v>0.22500000000000001</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="9">
         <v>1</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="9">
         <v>0.98</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="10">
         <v>163.37899999999999</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="10">
         <v>406.33499999999998</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="L6" s="2"/>
+      <c r="M6" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="7">
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="7">
         <v>26.04</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="11">
         <v>100</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="23">
         <v>96.09</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="8">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="13">
         <v>0.1033</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="9">
         <v>1</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="14">
         <v>0.98729999999999996</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="12">
         <v>144.34399999999999</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="12">
         <v>102.381</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="L7" s="2"/>
+      <c r="M7" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="23">
+        <v>96.09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>11.97</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="11">
         <v>100</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="20">
         <v>89.84</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="8">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="8">
         <v>0.39889999999999998</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="9">
         <v>1</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="9">
         <v>0.96730000000000005</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="12">
         <v>97.588999999999999</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="12">
         <v>179.48699999999999</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="L8" s="2"/>
+      <c r="M8" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="20">
+        <v>89.84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="7">
         <v>3912.58</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="7">
         <v>96.88</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="7">
         <v>66.41</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="8">
         <v>0.1037</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="8">
         <v>0.79279999999999995</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="9">
         <v>0.98080000000000001</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="9">
         <v>0.88849999999999996</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="10">
         <v>4028.623</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="10">
         <v>2047.364</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="L9" s="2"/>
+      <c r="M9" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="7">
+        <v>66.41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="7">
         <v>30.76</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="7">
         <v>98.44</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="7">
         <v>64.84</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="8">
         <v>0.1046</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="8">
         <v>0.79679999999999995</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="9">
         <v>0.98080000000000001</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="9">
         <v>0.88260000000000005</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="10">
         <v>3401.8409999999999</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="10">
         <v>2053.9030000000002</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="L10" s="2"/>
+      <c r="M10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="7">
+        <v>64.84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="7">
         <v>56.69</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="11">
         <v>100</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="11">
         <v>98.44</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="8">
         <v>3.0800000000000001E-2</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="13">
         <v>6.8599999999999994E-2</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="9">
         <v>1</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="14">
         <v>0.99490000000000001</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="10">
         <v>166.33099999999999</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="10">
         <v>384.67600000000004</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="L11" s="2"/>
+      <c r="M11" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="11">
+        <v>98.44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="7">
         <v>29.05</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="11">
         <v>100</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="7">
         <v>95.31</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="8">
         <v>3.0800000000000001E-2</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="8">
         <v>0.15129999999999999</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="9">
         <v>1</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="9">
         <v>0.98509999999999998</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="10">
         <v>180.75200000000001</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="10">
         <v>321.327</v>
       </c>
-      <c r="L12" s="4"/>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="L12" s="2"/>
+      <c r="M12" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="7">
+        <v>95.31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="7">
         <v>27.15</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="11">
         <v>100</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="11">
         <v>97.66</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="13">
         <v>1.8E-3</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="13">
         <v>9.3799999999999994E-2</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="9">
         <v>1</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="14">
         <v>0.99209999999999998</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="12">
         <v>146.80500000000001</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="10">
         <v>212.93700000000001</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="L13" s="2"/>
+      <c r="M13" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" s="11">
+        <v>97.66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="15">
         <v>13.08</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="15">
         <v>100</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="21">
         <v>95.31</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="16">
         <v>1.5E-3</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="17">
         <v>0.3407</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="18">
         <v>1</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="18">
         <v>0.98450000000000004</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="19">
         <v>133.27099999999999</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="19">
         <v>63.442</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="7"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>0.98880000000000001</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21">
-        <v>59.38</v>
-      </c>
-      <c r="E21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21">
-        <v>0.57589999999999997</v>
-      </c>
-      <c r="G21" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21">
-        <v>0.86270000000000002</v>
-      </c>
-      <c r="I21" t="s">
-        <v>36</v>
-      </c>
-      <c r="J21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22">
-        <v>0.14080000000000001</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22">
-        <v>94.53</v>
-      </c>
-      <c r="E22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22">
-        <v>0.95079999999999998</v>
-      </c>
-      <c r="G22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22">
-        <v>0.98280000000000001</v>
-      </c>
-      <c r="I22" t="s">
-        <v>36</v>
-      </c>
-      <c r="J22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23">
-        <v>93.75</v>
-      </c>
-      <c r="E23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23">
-        <v>0.94079999999999997</v>
-      </c>
-      <c r="G23" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23">
-        <v>0.98</v>
-      </c>
-      <c r="I23" t="s">
-        <v>36</v>
-      </c>
-      <c r="J23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="33">
-        <v>0.1033</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="33">
-        <v>96.09</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="33">
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="G24" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" s="33">
-        <v>0.98729999999999996</v>
-      </c>
-      <c r="I24" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="J24" s="33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25">
-        <v>0.39889999999999998</v>
-      </c>
-      <c r="C25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25">
-        <v>89.84</v>
-      </c>
-      <c r="E25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25">
-        <v>0.90590000000000004</v>
-      </c>
-      <c r="G25" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25">
-        <v>0.96730000000000005</v>
-      </c>
-      <c r="I25" t="s">
-        <v>36</v>
-      </c>
-      <c r="J25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26">
-        <v>0.79279999999999995</v>
-      </c>
-      <c r="C26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26">
-        <v>66.41</v>
-      </c>
-      <c r="E26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26">
-        <v>0.65690000000000004</v>
-      </c>
-      <c r="G26" t="s">
-        <v>35</v>
-      </c>
-      <c r="H26">
-        <v>0.88849999999999996</v>
-      </c>
-      <c r="I26" t="s">
-        <v>36</v>
-      </c>
-      <c r="J26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.79679999999999995</v>
-      </c>
-      <c r="C27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27">
-        <v>64.84</v>
-      </c>
-      <c r="E27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27">
-        <v>0.63939999999999997</v>
-      </c>
-      <c r="G27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27">
-        <v>0.88260000000000005</v>
-      </c>
-      <c r="I27" t="s">
-        <v>36</v>
-      </c>
-      <c r="J27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28">
-        <v>6.8599999999999994E-2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28">
-        <v>98.44</v>
-      </c>
-      <c r="E28" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28">
-        <v>0.98460000000000003</v>
-      </c>
-      <c r="G28" t="s">
-        <v>35</v>
-      </c>
-      <c r="H28">
-        <v>0.99490000000000001</v>
-      </c>
-      <c r="I28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29">
-        <v>0.15129999999999999</v>
-      </c>
-      <c r="C29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29">
+      <c r="L14" s="2"/>
+      <c r="M14" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="21">
         <v>95.31</v>
       </c>
-      <c r="E29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29">
-        <v>0.95569999999999999</v>
-      </c>
-      <c r="G29" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29">
-        <v>0.98509999999999998</v>
-      </c>
-      <c r="I29" t="s">
-        <v>36</v>
-      </c>
-      <c r="J29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="33">
-        <v>9.3799999999999994E-2</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="33">
-        <v>97.66</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="33">
-        <v>0.97719999999999996</v>
-      </c>
-      <c r="G30" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H30" s="33">
-        <v>0.99209999999999998</v>
-      </c>
-      <c r="I30" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="J30" s="33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31">
-        <v>0.3407</v>
-      </c>
-      <c r="C31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31">
-        <v>95.31</v>
-      </c>
-      <c r="E31" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31">
-        <v>0.94840000000000002</v>
-      </c>
-      <c r="G31" t="s">
-        <v>35</v>
-      </c>
-      <c r="H31">
-        <v>0.98450000000000004</v>
-      </c>
-      <c r="I31" t="s">
-        <v>36</v>
-      </c>
-      <c r="J31" t="s">
-        <v>47</v>
-      </c>
-    </row>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="29"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+    </row>
+    <row r="24" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="10"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+    </row>
+    <row r="30" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="14">
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="D2:E2"/>
